--- a/Shoot/Data/ShootDataTable.xlsx
+++ b/Shoot/Data/ShootDataTable.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="10845" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="10845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="3" r:id="rId1"/>
-    <sheet name="Bullet" sheetId="1" r:id="rId2"/>
-    <sheet name="Enemy" sheetId="5" r:id="rId3"/>
+    <sheet name="Enemy" sheetId="5" r:id="rId2"/>
+    <sheet name="Bullet" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BulletID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,7 +92,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적데이터</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,9 +474,9 @@
     <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -448,97 +484,111 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>1004</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1004</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1005</v>
       </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>1005</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
+      <c r="D10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -550,163 +600,202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1000</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1001</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1002</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1003</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1004</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1005</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2000</v>
-      </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2001</v>
+        <v>1006</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2002</v>
+        <v>1007</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2003</v>
+        <v>1008</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2004</v>
+        <v>1009</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2005</v>
+        <v>1010</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -717,188 +806,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1000</v>
       </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>2000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1001</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1002</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1003</v>
       </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>2000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>1004</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>1005</v>
       </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>2000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1006</v>
-      </c>
       <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>2000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1007</v>
+        <v>2000</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>2000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1008</v>
+        <v>2001</v>
       </c>
       <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>2000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1009</v>
+        <v>2002</v>
       </c>
       <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>2000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1010</v>
+        <v>2003</v>
       </c>
       <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>2000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2005</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Shoot/Data/ShootDataTable.xlsx
+++ b/Shoot/Data/ShootDataTable.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="10845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25785" windowHeight="10845" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="3" r:id="rId1"/>
     <sheet name="Enemy" sheetId="5" r:id="rId2"/>
     <sheet name="Bullet" sheetId="1" r:id="rId3"/>
+    <sheet name="StageInfo" sheetId="7" r:id="rId4"/>
+    <sheet name="StageData" sheetId="6" r:id="rId5"/>
+    <sheet name="Spawn" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,18 +67,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BulletID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ResourceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BulletID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResourceName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,15 +119,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 데이터</t>
+    <t>Stage 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Stage 6</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
+  </si>
+  <si>
+    <t>Stage 8</t>
+  </si>
+  <si>
+    <t>Stage 9</t>
+  </si>
+  <si>
+    <t>Stage 10</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스폰 좌표값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageDataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +585,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -495,16 +614,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -518,7 +637,7 @@
         <v>1000</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -532,7 +651,7 @@
         <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -546,7 +665,7 @@
         <v>1002</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -560,7 +679,7 @@
         <v>1003</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,7 +693,7 @@
         <v>1004</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -588,7 +707,7 @@
         <v>1005</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -602,18 +721,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,24 +744,24 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -654,8 +774,8 @@
       <c r="C5">
         <v>2000</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="D5">
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -668,8 +788,8 @@
       <c r="C6">
         <v>2000</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6">
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -682,8 +802,8 @@
       <c r="C7">
         <v>2000</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7">
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,8 +816,8 @@
       <c r="C8">
         <v>2000</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
+      <c r="D8">
+        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -710,8 +830,8 @@
       <c r="C9">
         <v>2000</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
+      <c r="D9">
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,10 +842,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>2000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,10 +856,10 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>2000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>2000</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,10 +884,10 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>2000</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>2000</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +929,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,18 +950,18 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,11 +1093,819 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>1900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1001</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1002</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8">
+        <v>1000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1004</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1005</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1006</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1007</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1008</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1009</v>
+      </c>
+      <c r="B14">
+        <v>1000</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1010</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1011</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1012</v>
+      </c>
+      <c r="B17">
+        <v>1000</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1013</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1014</v>
+      </c>
+      <c r="B19">
+        <v>1000</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1015</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1016</v>
+      </c>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1017</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1018</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1019</v>
+      </c>
+      <c r="B24">
+        <v>1000</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1000</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-2.5</v>
+      </c>
+      <c r="C5">
+        <v>6.5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-1.25</v>
+      </c>
+      <c r="C6">
+        <v>6.5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>6.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <v>6.5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>-2.5</v>
+      </c>
+      <c r="C9">
+        <v>6.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>6.5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>6.5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>6.5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>6.5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>6.5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>